--- a/notebooks/amazon-walmart-results.xlsx
+++ b/notebooks/amazon-walmart-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="-12860" windowWidth="19200" windowHeight="10800" tabRatio="500"/>
+    <workbookView xWindow="4000" yWindow="3860" windowWidth="29120" windowHeight="10800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>Vocabulary</t>
   </si>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +198,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +221,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -324,11 +329,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -382,6 +396,10 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -435,6 +453,10 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -712,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,7 +788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -791,17 +813,17 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="L2">
-        <v>0.78</v>
-      </c>
-      <c r="M2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N2">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>0.91666999999999998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.77193000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.83809999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -826,17 +848,17 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="L3">
-        <v>0.78</v>
-      </c>
-      <c r="M3">
-        <v>0.68</v>
-      </c>
-      <c r="N3">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>0.94252999999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.81591999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -867,17 +889,17 @@
       <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="L4">
-        <v>0.89</v>
-      </c>
-      <c r="M4">
-        <v>0.74</v>
-      </c>
-      <c r="N4">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="1">
+        <v>0.98851</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.75439000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.85572000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -908,17 +930,17 @@
       <c r="J5">
         <v>0.5</v>
       </c>
-      <c r="L5">
-        <v>0.86</v>
-      </c>
-      <c r="M5">
-        <v>0.82</v>
-      </c>
-      <c r="N5">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.85585999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -943,17 +965,17 @@
       <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="L7">
-        <v>0.79</v>
-      </c>
-      <c r="M7">
-        <v>0.65</v>
-      </c>
-      <c r="N7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="1">
+        <v>0.83186000000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.82455999999999996</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.82818999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -984,17 +1006,17 @@
       <c r="J8">
         <v>0.5</v>
       </c>
-      <c r="L8">
-        <v>0.81</v>
-      </c>
-      <c r="M8">
-        <v>0.74</v>
-      </c>
-      <c r="N8">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L8" s="1">
+        <v>0.91261999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.82455999999999996</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.86636000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1022,17 +1044,17 @@
       <c r="I9" t="s">
         <v>40</v>
       </c>
-      <c r="L9">
-        <v>0.87</v>
-      </c>
-      <c r="M9">
-        <v>0.73</v>
-      </c>
-      <c r="N9">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
+        <v>0.91429000000000005</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.84211000000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.87670999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1058,22 +1080,22 @@
         <v>47</v>
       </c>
       <c r="I10">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>0.75</v>
       </c>
-      <c r="L10">
-        <v>0.83</v>
-      </c>
-      <c r="M10">
-        <v>0.77</v>
-      </c>
-      <c r="N10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.86841999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1098,17 +1120,17 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="L12">
-        <v>0.9</v>
-      </c>
-      <c r="M12">
-        <v>0.84</v>
-      </c>
-      <c r="N12">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="1">
+        <v>0.88392999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.87611000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1131,25 +1153,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
       </c>
       <c r="J13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>0.89</v>
-      </c>
-      <c r="M13">
-        <v>0.76</v>
-      </c>
-      <c r="N13">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.75</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.82008000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1174,17 +1196,17 @@
       <c r="I15" t="s">
         <v>25</v>
       </c>
-      <c r="L15">
-        <v>0.83</v>
-      </c>
-      <c r="M15">
-        <v>0.53</v>
-      </c>
-      <c r="N15">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="1">
+        <v>0.88775999999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.75651999999999997</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.81689999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1207,25 +1229,25 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="L16">
-        <v>0.85</v>
-      </c>
-      <c r="M16">
         <v>0.75</v>
       </c>
-      <c r="N16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1250,17 +1272,17 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-      <c r="L18">
-        <v>0.88</v>
-      </c>
-      <c r="M18">
-        <v>0.9</v>
-      </c>
-      <c r="N18">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L18" s="1">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.87719000000000003</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.90908999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1285,17 +1307,17 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="L19">
-        <v>0.87</v>
-      </c>
-      <c r="M19">
-        <v>0.92</v>
-      </c>
-      <c r="N19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L19" s="1">
+        <v>0.87826000000000004</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.88595999999999997</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.8821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1320,18 +1342,18 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-      <c r="L20">
-        <v>0.89</v>
-      </c>
-      <c r="M20">
-        <v>0.91</v>
-      </c>
-      <c r="N20">
-        <v>0.9</v>
+      <c r="L20" s="1">
+        <v>0.89090999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1356,17 +1378,17 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="L22">
-        <v>0.7</v>
-      </c>
-      <c r="M22">
-        <v>0.76</v>
-      </c>
-      <c r="N22">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L22" s="1">
+        <v>0.82608999999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.82969000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1397,14 +1419,14 @@
       <c r="J23">
         <v>0.5</v>
       </c>
-      <c r="L23">
-        <v>0.79</v>
-      </c>
-      <c r="M23">
-        <v>0.83</v>
-      </c>
-      <c r="N23">
-        <v>0.81</v>
+      <c r="L23" s="1">
+        <v>0.90908999999999995</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.87719000000000003</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.89285999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1433,16 +1455,16 @@
         <v>25</v>
       </c>
       <c r="L24">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="M24">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="N24">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1473,17 +1495,17 @@
       <c r="J25">
         <v>0.5</v>
       </c>
-      <c r="L25">
-        <v>0.85</v>
-      </c>
-      <c r="M25">
-        <v>0.83</v>
-      </c>
-      <c r="N25">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="1">
+        <v>0.90825999999999996</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.88788999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1506,25 +1528,25 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I27">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <v>0.75</v>
       </c>
-      <c r="L27">
-        <v>0.87</v>
-      </c>
-      <c r="M27">
-        <v>0.82</v>
-      </c>
-      <c r="N27">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L27" s="1">
+        <v>0.85246</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.91227999999999998</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.88136000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1546,17 +1568,23 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="I28" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28">
-        <v>0.84</v>
-      </c>
-      <c r="M28">
-        <v>0.8</v>
-      </c>
-      <c r="N28">
-        <v>0.82</v>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>0.75</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.83077000000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.93913000000000002</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.88163000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/amazon-walmart-results.xlsx
+++ b/notebooks/amazon-walmart-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="3860" windowWidth="29120" windowHeight="10800" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="520" windowWidth="33400" windowHeight="17760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>Vocabulary</t>
   </si>
@@ -168,13 +168,22 @@
   </si>
   <si>
     <t>20 / 0.25 / 0.25</t>
+  </si>
+  <si>
+    <t>malstm</t>
+  </si>
+  <si>
+    <t>malstm-t</t>
+  </si>
+  <si>
+    <t>50 / 0.25 / 0.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,13 +212,25 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -337,12 +358,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="115"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="142">
+    <cellStyle name="Bad" xfId="115" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -400,6 +450,19 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -457,6 +520,19 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,38 +1323,38 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>0.94340000000000002</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>0.87719000000000003</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>0.90908999999999995</v>
       </c>
     </row>
@@ -1585,6 +1661,52 @@
       </c>
       <c r="N28" s="1">
         <v>0.88163000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.74544999999999995</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.73214000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.76105999999999996</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.75439000000000001</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.75770999999999999</v>
       </c>
     </row>
   </sheetData>
